--- a/src/excel/AntigenSupportingData- Varicella-508.xlsx
+++ b/src/excel/AntigenSupportingData- Varicella-508.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.59 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.63 - 508 - DRAFT\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5197295F-B615-42DC-8178-52F031E9EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C24A0D8-2315-45FB-BABD-B01B542A4EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="368">
   <si>
     <t>Resources</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Latest Recommended Age on Dose 1 of Adolescent Series</t>
-  </si>
-  <si>
-    <t>≥12 mo to &lt;13 yrs</t>
   </si>
   <si>
     <t>VARIVAX (MSD)</t>
@@ -368,38 +365,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">≥12 mo
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">≥12 mo-4 d to &lt;50 yrs
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>50 years</t>
   </si>
   <si>
@@ -1007,22 +972,6 @@
     <t>Updates to avoid overlapping recommendations for both varicella and zoster after the age of 50 years.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">≥12 mo-4 d
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1174,6 +1123,81 @@
   </si>
   <si>
     <t>Publication Date: 11/08/2024</t>
+  </si>
+  <si>
+    <t>Publication Date: 12/13/2024</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; Antigen Contraindication -&gt; Contraindication (Code)</t>
+  </si>
+  <si>
+    <t>Solid organ transplantation (157)</t>
+  </si>
+  <si>
+    <t>Typo correction</t>
+  </si>
+  <si>
+    <t>HIV Infection (186)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate with MMRV if the patient has an HIV infection of any severity.</t>
+  </si>
+  <si>
+    <t>Contraindications -&gt; New Vaccine Contraindication</t>
+  </si>
+  <si>
+    <t>MMRV (CVX 94) contraindication for persons with an HIV infection (coded observation 186)</t>
+  </si>
+  <si>
+    <t>HIV infection of any severity is listed as a contraindication for MMRV in the 2025 yearly schedule.</t>
+  </si>
+  <si>
+    <t>Publication Date: 02/06/2025</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Measles (091)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Measles vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Mumps (092)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Mumps vaccine.</t>
+  </si>
+  <si>
+    <t>Severe allergic reaction after previous dose of Rubella (093)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has had a severe allergic reaction after a previous dose of Rubella vaccine.</t>
+  </si>
+  <si>
+    <t>HIV/AIDS - not severely immunocompromised (155)</t>
+  </si>
+  <si>
+    <t>Do not vaccinate if the patient has HIV/AIDS but are not severely immunocompromised (See the CDC general recommendations for a definition of "severely immunocompromised").</t>
+  </si>
+  <si>
+    <t>Added new vaccine contraindications to support combination vaccines which have cross antigen contraindications impacting the combination vaccine. For example, a mumps-specific contraindication also contraindicates the use of MMRV across all antigens, not just mumps. Previously, the mumps-specific contraindications was only present in mumps supporting data.</t>
+  </si>
+  <si>
+    <t>Added code 091, 092, 093,155</t>
+  </si>
+  <si>
+    <t>Publication Date: 05/23/2025</t>
+  </si>
+  <si>
+    <t>≥12 mos</t>
+  </si>
+  <si>
+    <t>≥12 mos to &lt;13 yrs</t>
+  </si>
+  <si>
+    <t>≥12 mos - 4 days</t>
+  </si>
+  <si>
+    <t>≥12 mos - 4 days to &lt;50 yrs</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2390,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2955,6 +2979,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="16" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -3308,7 +3335,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="97"/>
       <c r="D1" s="97"/>
@@ -3334,7 +3361,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="101" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
@@ -3360,7 +3387,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C5" s="101"/>
       <c r="D5" s="101"/>
@@ -3384,7 +3411,7 @@
         <v>59</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C7" s="101"/>
       <c r="D7" s="101"/>
@@ -3410,7 +3437,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" s="101"/>
       <c r="D9" s="101"/>
@@ -3436,7 +3463,7 @@
         <v>59</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C11" s="101"/>
       <c r="D11" s="101"/>
@@ -3462,7 +3489,7 @@
         <v>59</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
@@ -3476,7 +3503,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C14" s="101"/>
       <c r="D14" s="101"/>
@@ -3490,7 +3517,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="103" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="103"/>
       <c r="D15" s="103"/>
@@ -3514,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -3529,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -3544,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -3559,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -3574,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -3629,13 +3656,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="192" t="s">
-        <v>98</v>
+        <v>364</v>
       </c>
       <c r="D25" s="192" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="E25" s="69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" s="69">
         <v>0.5</v>
@@ -3654,13 +3681,13 @@
         <v>11</v>
       </c>
       <c r="C26" s="192" t="s">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="D26" s="192" t="s">
-        <v>295</v>
+        <v>366</v>
       </c>
       <c r="E26" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="69">
         <v>0.5</v>
@@ -3676,22 +3703,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="192" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C27" s="192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="192" t="s">
-        <v>99</v>
+        <v>367</v>
       </c>
       <c r="E27" s="69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F27" s="69">
         <v>0.65</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="20"/>
@@ -3710,10 +3737,10 @@
     </row>
     <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
@@ -3734,10 +3761,10 @@
     </row>
     <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -3765,7 +3792,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -3782,10 +3809,10 @@
         <v>60</v>
       </c>
       <c r="B1" s="198">
-        <v>4.59</v>
-      </c>
-      <c r="C1" s="196" t="s">
-        <v>346</v>
+        <v>4.62</v>
+      </c>
+      <c r="C1" s="194" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3808,331 +3835,343 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="177" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="89">
         <v>1</v>
       </c>
       <c r="C3" s="90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="198">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="C5" s="194" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="89">
+        <v>1</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>351</v>
+      </c>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="198">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C9" s="196" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="89">
+        <v>1</v>
+      </c>
+      <c r="C11" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="91" t="s">
+      <c r="D11" s="90" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="90" t="s">
         <v>345</v>
       </c>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="187" t="s">
+      <c r="F11" s="91" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="198">
+        <v>4.59</v>
+      </c>
+      <c r="C13" s="196" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="89">
+      <c r="B14" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="89">
+        <v>1</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>341</v>
+      </c>
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="89">
         <v>2</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C16" s="90" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="180" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" s="180" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="89">
+        <v>3</v>
+      </c>
+      <c r="C17" s="90" t="s">
         <v>331</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D17" s="180" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="180" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" s="91" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="180" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4" s="91" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="177" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="194">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C19" s="196" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="89">
+      <c r="B20" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="89">
+        <v>1</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>314</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="89">
+        <v>2</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="91" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="89">
         <v>3</v>
       </c>
-      <c r="C5" s="90" t="s">
-        <v>335</v>
-      </c>
-      <c r="D5" s="180" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="180" t="s">
-        <v>330</v>
-      </c>
-      <c r="F5" s="91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="194">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="C7" s="196" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="89">
-        <v>1</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>231</v>
-      </c>
-      <c r="E9" s="91" t="s">
+      <c r="C23" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="F9" s="91" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="89">
-        <v>2</v>
-      </c>
-      <c r="C10" s="90" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="91" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="89">
-        <v>3</v>
-      </c>
-      <c r="C11" s="90" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="89">
-        <v>4</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="194">
-        <v>4.41</v>
-      </c>
-      <c r="C14" s="196" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="89">
-        <v>1</v>
-      </c>
-      <c r="C16" s="90" t="s">
-        <v>313</v>
-      </c>
-      <c r="D16" s="88" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="86">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="89">
-        <v>1</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="91" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="86">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="177" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>278</v>
+        <v>322</v>
       </c>
       <c r="D24" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="91" t="s">
-        <v>304</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>320</v>
       </c>
       <c r="F24" s="91" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="86">
-        <v>4</v>
+      <c r="B26" s="194">
+        <v>4.41</v>
+      </c>
+      <c r="C26" s="196" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,286 +4195,286 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="187" t="s">
+      <c r="A28" s="177" t="s">
         <v>61</v>
       </c>
       <c r="B28" s="89">
         <v>1</v>
       </c>
       <c r="C28" s="90" t="s">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="D28" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="91" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="86">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="89">
+        <v>1</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="91" t="s">
+      <c r="E32" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="86">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="89">
+        <v>1</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="91" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" s="91" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="89">
+        <v>1</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="91" t="s">
+        <v>283</v>
+      </c>
+      <c r="F40" s="91" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="89">
+        <v>2</v>
+      </c>
+      <c r="C41" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="91" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="F28" s="91" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="187" t="s">
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="89">
-        <v>2</v>
-      </c>
-      <c r="C29" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="88" t="s">
+      <c r="B42" s="89">
+        <v>3</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="91" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="86">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="90">
+        <v>1</v>
+      </c>
+      <c r="C46" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="D46" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="F29" s="91" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="89">
-        <v>3</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="F30" s="91" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" s="86">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="187" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="90">
-        <v>1</v>
-      </c>
-      <c r="C34" s="90" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="175" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="90" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="90">
-        <v>2</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>293</v>
-      </c>
-      <c r="D35" s="175" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="175" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="90" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="86">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="90">
-        <v>1</v>
-      </c>
-      <c r="C39" s="90" t="s">
+      <c r="F46" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="D39" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="E39" s="175" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="86">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="89">
-        <v>1</v>
-      </c>
-      <c r="C43" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="D43" s="175" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="175" t="s">
-        <v>279</v>
-      </c>
-      <c r="F43" s="91" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="86">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="89">
-        <v>1</v>
+      <c r="B47" s="90">
+        <v>2</v>
       </c>
       <c r="C47" s="90" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D47" s="175" t="s">
-        <v>276</v>
+        <v>67</v>
       </c>
       <c r="E47" s="175" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="91" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="F47" s="90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="28" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="86">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
         <v>61</v>
       </c>
@@ -4455,622 +4494,766 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="187" t="s">
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B51" s="89">
+      <c r="B51" s="90">
         <v>1</v>
       </c>
       <c r="C51" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="D51" s="175" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E51" s="175" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" s="91" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="187" t="s">
+      <c r="F51" s="90" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="86">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="89">
+      <c r="B54" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="89">
+        <v>1</v>
+      </c>
+      <c r="C55" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="175" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" s="91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="86">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="89">
+        <v>1</v>
+      </c>
+      <c r="C59" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="175" t="s">
+        <v>273</v>
+      </c>
+      <c r="E59" s="175" t="s">
+        <v>271</v>
+      </c>
+      <c r="F59" s="91" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="86">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="89">
+        <v>1</v>
+      </c>
+      <c r="C63" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="175" t="s">
+        <v>250</v>
+      </c>
+      <c r="F63" s="91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="89">
         <v>2</v>
       </c>
-      <c r="C52" s="90" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" s="175" t="s">
+      <c r="C64" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="D64" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E52" s="175" t="s">
-        <v>268</v>
-      </c>
-      <c r="F52" s="91" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="177" t="s">
+      <c r="E64" s="175" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="89">
+      <c r="B65" s="89">
         <v>3</v>
       </c>
-      <c r="C53" s="90" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" s="175" t="s">
+      <c r="C65" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="175" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" s="91" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
+      <c r="E65" s="175" t="s">
+        <v>265</v>
+      </c>
+      <c r="F65" s="91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="86">
+      <c r="B67" s="86">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="41" t="s">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B68" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C68" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="31" t="s">
+      <c r="D68" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E68" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="31" t="s">
+      <c r="F68" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="60" t="s">
+    <row r="69" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="87">
+      <c r="B69" s="87">
         <v>1</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C69" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E69" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="60"/>
+      <c r="B70" s="89">
+        <v>2</v>
+      </c>
+      <c r="C70" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="88" t="s">
+      <c r="F70" s="91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="89">
+        <v>3</v>
+      </c>
+      <c r="C71" s="90" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" s="91" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="30" x14ac:dyDescent="0.3">
+      <c r="A72" s="176" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="161">
+        <v>4</v>
+      </c>
+      <c r="C72" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="162" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="72" t="s">
-        <v>183</v>
-      </c>
-      <c r="F57" s="72" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="60"/>
-      <c r="B58" s="89">
+      <c r="E72" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="F72" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="G72" s="163"/>
+      <c r="H72" s="163"/>
+      <c r="I72" s="163"/>
+      <c r="J72" s="163"/>
+      <c r="K72" s="163"/>
+      <c r="L72" s="163"/>
+      <c r="M72" s="163"/>
+      <c r="N72" s="163"/>
+      <c r="O72" s="163"/>
+      <c r="P72" s="163"/>
+      <c r="Q72" s="163"/>
+      <c r="R72" s="163"/>
+    </row>
+    <row r="73" spans="1:18" ht="45" x14ac:dyDescent="0.3">
+      <c r="A73" s="177" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="174">
+        <v>5</v>
+      </c>
+      <c r="C73" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="175" t="s">
+        <v>115</v>
+      </c>
+      <c r="E73" s="175" t="s">
+        <v>243</v>
+      </c>
+      <c r="F73" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="G73" s="163"/>
+      <c r="H73" s="163"/>
+      <c r="I73" s="163"/>
+      <c r="J73" s="163"/>
+      <c r="K73" s="163"/>
+      <c r="L73" s="163"/>
+      <c r="M73" s="163"/>
+      <c r="N73" s="163"/>
+      <c r="O73" s="163"/>
+      <c r="P73" s="163"/>
+      <c r="Q73" s="163"/>
+      <c r="R73" s="163"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="159">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="84"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="158" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="156" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="156" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="134" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="154">
+        <v>1</v>
+      </c>
+      <c r="C77" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="154" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" s="91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" s="91">
         <v>2</v>
       </c>
-      <c r="C58" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="88" t="s">
+      <c r="C78" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="154" t="s">
+        <v>231</v>
+      </c>
+      <c r="E78" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="153"/>
+      <c r="B79" s="152"/>
+      <c r="C79" s="152"/>
+      <c r="D79" s="152"/>
+      <c r="E79" s="152"/>
+      <c r="F79" s="152"/>
+    </row>
+    <row r="80" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="70"/>
+      <c r="B82" s="32">
+        <v>1</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="F58" s="91" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="60" t="s">
+      <c r="E82" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="70"/>
+      <c r="B83" s="32">
+        <v>2</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="89">
+      <c r="B84" s="32">
         <v>3</v>
       </c>
-      <c r="C59" s="90" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="88" t="s">
-        <v>228</v>
-      </c>
-      <c r="E59" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="F59" s="91" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.3">
-      <c r="A60" s="176" t="s">
+      <c r="C84" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" s="29">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="161">
-        <v>4</v>
-      </c>
-      <c r="C60" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="162" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="F60" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="G60" s="163"/>
-      <c r="H60" s="163"/>
-      <c r="I60" s="163"/>
-      <c r="J60" s="163"/>
-      <c r="K60" s="163"/>
-      <c r="L60" s="163"/>
-      <c r="M60" s="163"/>
-      <c r="N60" s="163"/>
-      <c r="O60" s="163"/>
-      <c r="P60" s="163"/>
-      <c r="Q60" s="163"/>
-      <c r="R60" s="163"/>
-    </row>
-    <row r="61" spans="1:18" ht="45" x14ac:dyDescent="0.3">
-      <c r="A61" s="177" t="s">
+      <c r="B87" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="174">
-        <v>5</v>
-      </c>
-      <c r="C61" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="175" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" s="175" t="s">
-        <v>246</v>
-      </c>
-      <c r="F61" s="91" t="s">
-        <v>247</v>
-      </c>
-      <c r="G61" s="163"/>
-      <c r="H61" s="163"/>
-      <c r="I61" s="163"/>
-      <c r="J61" s="163"/>
-      <c r="K61" s="163"/>
-      <c r="L61" s="163"/>
-      <c r="M61" s="163"/>
-      <c r="N61" s="163"/>
-      <c r="O61" s="163"/>
-      <c r="P61" s="163"/>
-      <c r="Q61" s="163"/>
-      <c r="R61" s="163"/>
-    </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="160" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="159">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="158" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="156" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="156" t="s">
+      <c r="F87" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="134" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="154">
-        <v>1</v>
-      </c>
-      <c r="C65" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="F65" s="91" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="155" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="91">
-        <v>2</v>
-      </c>
-      <c r="C66" s="91" t="s">
-        <v>107</v>
-      </c>
-      <c r="D66" s="154" t="s">
-        <v>234</v>
-      </c>
-      <c r="E66" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66" s="91" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="153"/>
-      <c r="B67" s="152"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="152"/>
-      <c r="E67" s="152"/>
-      <c r="F67" s="152"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" s="86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F69" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
-      <c r="B70" s="32">
-        <v>1</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" s="72" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="32">
-        <v>2</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71" s="71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="32">
-        <v>3</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="29">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D75" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B76" s="32">
-        <v>1</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="29">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C79" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F79" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="32">
-        <v>1</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F80" s="33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B81" s="32">
-        <v>2</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B83" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" s="32">
-        <v>1</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" s="32">
-        <v>2</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="F86" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B87" s="32">
-        <v>3</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D87" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F87" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
         <v>61</v>
       </c>
       <c r="B88" s="32">
+        <v>1</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D88" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="29">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="32">
+        <v>1</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="32">
+        <v>2</v>
+      </c>
+      <c r="C93" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D93" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F93" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E96" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="32">
+        <v>1</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="32">
+        <v>2</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" s="32">
+        <v>3</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" s="32">
         <v>4</v>
       </c>
-      <c r="C88" s="33" t="s">
+      <c r="C100" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D100" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E88" s="33" t="s">
+      <c r="E100" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F88" s="33" t="s">
+      <c r="F100" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="61" t="s">
+    <row r="101" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B89" s="32">
+      <c r="B101" s="32">
         <v>5</v>
       </c>
-      <c r="C89" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" s="33" t="s">
+      <c r="C101" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D101" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E89" s="33" t="s">
+      <c r="E101" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="F89" s="33" t="s">
-        <v>308</v>
+      <c r="F101" s="33" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5092,33 +5275,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="178" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="179" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="179" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="178" t="s">
+      <c r="E1" s="179" t="s">
         <v>256</v>
-      </c>
-      <c r="C1" s="179" t="s">
-        <v>257</v>
-      </c>
-      <c r="D1" s="179" t="s">
-        <v>258</v>
-      </c>
-      <c r="E1" s="179" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="176" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" s="180" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C2" s="181" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" s="182" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E2" s="183" t="s">
         <v>36</v>
@@ -5126,16 +5309,16 @@
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="176" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B3" s="174" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="C3" s="90" t="s">
-        <v>270</v>
-      </c>
       <c r="D3" s="175" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E3" s="183" t="s">
         <v>36</v>
@@ -5157,34 +5340,34 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="176" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="177" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5195,58 +5378,58 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" s="146" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="147" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="176" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="148" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="149" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="177" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" s="93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5262,7 +5445,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5277,33 +5460,33 @@
   <sheetData>
     <row r="1" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C1" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="92" t="s">
-        <v>125</v>
-      </c>
       <c r="E1" s="92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F1" s="92" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D2" s="105" t="s">
         <v>36</v>
@@ -5317,13 +5500,13 @@
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B3" s="173" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C3" s="173" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D3" s="105" t="s">
         <v>36</v>
@@ -5337,13 +5520,13 @@
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B4" s="173" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C4" s="173" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D4" s="105" t="s">
         <v>36</v>
@@ -5357,13 +5540,13 @@
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D5" s="105" t="s">
         <v>36</v>
@@ -5377,13 +5560,13 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D6" s="105" t="s">
         <v>36</v>
@@ -5397,13 +5580,13 @@
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D7" s="105" t="s">
         <v>36</v>
@@ -5417,13 +5600,13 @@
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D8" s="105" t="s">
         <v>36</v>
@@ -5437,13 +5620,13 @@
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D9" s="105" t="s">
         <v>36</v>
@@ -5457,13 +5640,13 @@
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D10" s="105" t="s">
         <v>36</v>
@@ -5477,13 +5660,13 @@
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D11" s="105" t="s">
         <v>36</v>
@@ -5497,13 +5680,13 @@
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D12" s="105" t="s">
         <v>36</v>
@@ -5517,13 +5700,13 @@
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D13" s="105" t="s">
         <v>36</v>
@@ -5537,13 +5720,13 @@
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D14" s="105" t="s">
         <v>36</v>
@@ -5557,13 +5740,13 @@
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" s="105" t="s">
         <v>36</v>
@@ -5577,13 +5760,13 @@
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D16" s="105" t="s">
         <v>36</v>
@@ -5597,13 +5780,13 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D17" s="105" t="s">
         <v>36</v>
@@ -5617,13 +5800,13 @@
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D18" s="105" t="s">
         <v>36</v>
@@ -5637,13 +5820,13 @@
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D19" s="105" t="s">
         <v>36</v>
@@ -5657,13 +5840,13 @@
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D20" s="105" t="s">
         <v>36</v>
@@ -5677,13 +5860,13 @@
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D21" s="105" t="s">
         <v>36</v>
@@ -5697,13 +5880,13 @@
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D22" s="105" t="s">
         <v>36</v>
@@ -5717,13 +5900,13 @@
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D23" s="105" t="s">
         <v>36</v>
@@ -5737,13 +5920,13 @@
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" s="105" t="s">
         <v>36</v>
@@ -5757,13 +5940,13 @@
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" s="105" t="s">
         <v>36</v>
@@ -5777,13 +5960,13 @@
     </row>
     <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D26" s="105" t="s">
         <v>36</v>
@@ -5797,13 +5980,13 @@
     </row>
     <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D27" s="105" t="s">
         <v>36</v>
@@ -5817,13 +6000,13 @@
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D28" s="105" t="s">
         <v>36</v>
@@ -5837,13 +6020,13 @@
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D29" s="105" t="s">
         <v>36</v>
@@ -5857,13 +6040,13 @@
     </row>
     <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D30" s="105" t="s">
         <v>36</v>
@@ -5877,13 +6060,13 @@
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D31" s="105" t="s">
         <v>36</v>
@@ -5897,16 +6080,16 @@
     </row>
     <row r="32" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B32" s="200" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C32" s="201" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D32" s="202" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E32" s="105" t="s">
         <v>36</v>
@@ -5917,13 +6100,13 @@
     </row>
     <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D33" s="105" t="s">
         <v>36</v>
@@ -5937,13 +6120,13 @@
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D34" s="105" t="s">
         <v>36</v>
@@ -5957,13 +6140,13 @@
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D35" s="105" t="s">
         <v>36</v>
@@ -5977,13 +6160,13 @@
     </row>
     <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D36" s="105" t="s">
         <v>36</v>
@@ -6004,47 +6187,139 @@
     </row>
     <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="92" t="s">
         <v>122</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>125</v>
       </c>
       <c r="E38" s="92" t="s">
         <v>2</v>
       </c>
       <c r="F38" s="92" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G38" s="92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="105" t="s">
-        <v>36</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="173" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" s="173" t="s">
+        <v>354</v>
       </c>
       <c r="D39" s="105" t="s">
         <v>36</v>
       </c>
       <c r="E39" s="105" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F39" s="105" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="D41" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="203" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="C42" s="173" t="s">
+        <v>360</v>
+      </c>
+      <c r="D42" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="105" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6070,7 +6345,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C1" s="141"/>
       <c r="D1" s="142"/>
@@ -6097,52 +6372,52 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="143" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" s="144"/>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C5" s="144"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C6" s="144"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B7" s="106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C7" s="144"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="143" t="s">
         <v>213</v>
-      </c>
-      <c r="B8" s="143" t="s">
-        <v>216</v>
       </c>
       <c r="C8" s="144"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>36</v>
@@ -6170,7 +6445,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B12" s="118" t="s">
         <v>16</v>
@@ -6179,42 +6454,42 @@
         <v>17</v>
       </c>
       <c r="D12" s="164" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12" s="121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G12" s="120" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="122" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I12" s="122" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B13" s="128" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C13" s="125" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="165" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E13" s="79">
         <v>1</v>
       </c>
       <c r="F13" s="79" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G13" s="125">
         <v>1</v>
@@ -6228,27 +6503,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B15" s="79" t="s">
         <v>36</v>
@@ -6304,10 +6579,10 @@
         <v>27</v>
       </c>
       <c r="G18" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H18" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -6315,16 +6590,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" s="140" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D19" s="140" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E19" s="140" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F19" s="189" t="s">
         <v>36</v>
@@ -6338,7 +6613,7 @@
     </row>
     <row r="20" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B20" s="118" t="s">
         <v>30</v>
@@ -6347,10 +6622,10 @@
         <v>31</v>
       </c>
       <c r="D20" s="129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E20" s="121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F20" s="120" t="s">
         <v>32</v>
@@ -6365,18 +6640,18 @@
         <v>35</v>
       </c>
       <c r="J20" s="107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L20" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" s="130" t="s">
         <v>36</v>
@@ -6414,7 +6689,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>30</v>
@@ -6426,16 +6701,16 @@
         <v>32</v>
       </c>
       <c r="E22" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F22" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="105" t="s">
         <v>36</v>
@@ -6474,7 +6749,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -6485,7 +6760,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D25" s="135" t="s">
         <v>36</v>
@@ -6497,7 +6772,7 @@
         <v>0.5</v>
       </c>
       <c r="G25" s="135" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -6508,7 +6783,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D26" s="135" t="s">
         <v>28</v>
@@ -6520,7 +6795,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="135" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -6547,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D28" s="135" t="s">
         <v>36</v>
@@ -6563,7 +6838,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D29" s="135" t="s">
         <v>36</v>
@@ -6576,19 +6851,19 @@
         <v>41</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C30" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D30" s="135" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="109" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B31" s="166" t="s">
         <v>2</v>
@@ -6612,7 +6887,7 @@
     </row>
     <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B32" s="171" t="s">
         <v>36</v>
@@ -6636,34 +6911,34 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="190" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="190" t="s">
-        <v>292</v>
-      </c>
-      <c r="C33" s="111" t="s">
+      <c r="F33" s="190" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="I33" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="111" t="s">
+      <c r="J33" s="111" t="s">
         <v>203</v>
-      </c>
-      <c r="F33" s="190" t="s">
-        <v>290</v>
-      </c>
-      <c r="G33" s="190" t="s">
-        <v>291</v>
-      </c>
-      <c r="H33" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="111" t="s">
-        <v>206</v>
       </c>
       <c r="K33" s="111" t="s">
         <v>44</v>
@@ -6672,34 +6947,34 @@
         <v>45</v>
       </c>
       <c r="M33" s="111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N33" s="111" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O33" s="111" t="s">
         <v>29</v>
       </c>
       <c r="P33" s="111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="R33" s="111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S33" s="111" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T33" s="115" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U33" s="112"/>
     </row>
     <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B34" s="191" t="s">
         <v>36</v>
@@ -6837,10 +7112,10 @@
         <v>27</v>
       </c>
       <c r="G41" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H41" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -6848,10 +7123,10 @@
         <v>22</v>
       </c>
       <c r="B42" s="96" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C42" s="96" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>50</v>
@@ -6871,7 +7146,7 @@
     </row>
     <row r="43" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>30</v>
@@ -6880,10 +7155,10 @@
         <v>31</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E43" s="121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>32</v>
@@ -6898,18 +7173,18 @@
         <v>35</v>
       </c>
       <c r="J43" s="107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K43" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L43" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>52</v>
@@ -6924,7 +7199,7 @@
         <v>36</v>
       </c>
       <c r="F44" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>54</v>
@@ -6947,7 +7222,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>30</v>
@@ -6959,16 +7234,16 @@
         <v>32</v>
       </c>
       <c r="E45" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F45" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="105" t="s">
         <v>52</v>
@@ -7007,7 +7282,7 @@
         <v>40</v>
       </c>
       <c r="G47" s="132" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -7018,7 +7293,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D48" s="135" t="s">
         <v>36</v>
@@ -7030,7 +7305,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="135" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -7041,7 +7316,7 @@
         <v>11</v>
       </c>
       <c r="C49" s="135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D49" s="135" t="s">
         <v>28</v>
@@ -7053,7 +7328,7 @@
         <v>0.5</v>
       </c>
       <c r="G49" s="135" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -7080,7 +7355,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D51" s="135" t="s">
         <v>36</v>
@@ -7095,7 +7370,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D52" s="135" t="s">
         <v>36</v>
@@ -7107,19 +7382,19 @@
         <v>41</v>
       </c>
       <c r="B53" s="63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C53" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D53" s="135" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E53" s="16"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="109" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B54" s="166" t="s">
         <v>2</v>
@@ -7143,7 +7418,7 @@
     </row>
     <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="170" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B55" s="171" t="s">
         <v>36</v>
@@ -7167,34 +7442,34 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="190" t="s">
+        <v>289</v>
+      </c>
+      <c r="C56" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="190" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" s="111" t="s">
+      <c r="F56" s="190" t="s">
+        <v>287</v>
+      </c>
+      <c r="G56" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="D56" s="111" t="s">
+      <c r="I56" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="E56" s="111" t="s">
+      <c r="J56" s="111" t="s">
         <v>203</v>
-      </c>
-      <c r="F56" s="190" t="s">
-        <v>290</v>
-      </c>
-      <c r="G56" s="190" t="s">
-        <v>291</v>
-      </c>
-      <c r="H56" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="I56" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="J56" s="111" t="s">
-        <v>206</v>
       </c>
       <c r="K56" s="111" t="s">
         <v>44</v>
@@ -7203,34 +7478,34 @@
         <v>45</v>
       </c>
       <c r="M56" s="111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N56" s="111" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O56" s="111" t="s">
         <v>29</v>
       </c>
       <c r="P56" s="111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q56" s="111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="R56" s="111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S56" s="111" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T56" s="115" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U56" s="112"/>
     </row>
     <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="113" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B57" s="191" t="s">
         <v>36</v>
@@ -7358,7 +7633,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C1" s="136"/>
       <c r="D1" s="137"/>
@@ -7385,61 +7660,61 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B4" s="143" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C4" s="144"/>
     </row>
     <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="197" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C5" s="144"/>
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C6" s="144"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="70" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B7" s="143" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="144"/>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C8" s="144"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="70" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="143" t="s">
         <v>213</v>
-      </c>
-      <c r="B9" s="143" t="s">
-        <v>216</v>
       </c>
       <c r="C9" s="144"/>
     </row>
     <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>36</v>
@@ -7466,7 +7741,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="94" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B13" s="118" t="s">
         <v>16</v>
@@ -7475,27 +7750,27 @@
         <v>17</v>
       </c>
       <c r="D13" s="164" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G13" s="120" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="122" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="123" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B14" s="124" t="s">
         <v>19</v>
@@ -7504,13 +7779,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="165" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E14" s="79">
         <v>1</v>
       </c>
       <c r="F14" s="79" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G14" s="125">
         <v>2</v>
@@ -7524,27 +7799,27 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>36</v>
@@ -7600,10 +7875,10 @@
         <v>27</v>
       </c>
       <c r="G19" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H19" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -7634,7 +7909,7 @@
     </row>
     <row r="21" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B21" s="118" t="s">
         <v>30</v>
@@ -7643,10 +7918,10 @@
         <v>31</v>
       </c>
       <c r="D21" s="129" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E21" s="121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="120" t="s">
         <v>32</v>
@@ -7661,18 +7936,18 @@
         <v>35</v>
       </c>
       <c r="J21" s="107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K21" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L21" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B22" s="193" t="s">
         <v>36</v>
@@ -7710,7 +7985,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="64" t="s">
         <v>30</v>
@@ -7722,16 +7997,16 @@
         <v>32</v>
       </c>
       <c r="E23" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F23" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" s="105" t="s">
         <v>36</v>
@@ -7770,7 +8045,7 @@
         <v>40</v>
       </c>
       <c r="G25" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
@@ -7781,7 +8056,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D26" s="131" t="s">
         <v>36</v>
@@ -7793,7 +8068,7 @@
         <v>0.5</v>
       </c>
       <c r="G26" s="135" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -7820,7 +8095,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D28" s="131" t="s">
         <v>36</v>
@@ -7835,7 +8110,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D29" s="131" t="s">
         <v>36</v>
@@ -7847,19 +8122,19 @@
         <v>41</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C30" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D30" s="135" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="109" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B31" s="166" t="s">
         <v>2</v>
@@ -7883,7 +8158,7 @@
     </row>
     <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B32" s="171" t="s">
         <v>36</v>
@@ -7907,34 +8182,34 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="190" t="s">
+        <v>289</v>
+      </c>
+      <c r="C33" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="190" t="s">
-        <v>292</v>
-      </c>
-      <c r="C33" s="111" t="s">
+      <c r="F33" s="190" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="H33" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="I33" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="111" t="s">
+      <c r="J33" s="111" t="s">
         <v>203</v>
-      </c>
-      <c r="F33" s="190" t="s">
-        <v>290</v>
-      </c>
-      <c r="G33" s="190" t="s">
-        <v>291</v>
-      </c>
-      <c r="H33" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="I33" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="111" t="s">
-        <v>206</v>
       </c>
       <c r="K33" s="111" t="s">
         <v>44</v>
@@ -7943,34 +8218,34 @@
         <v>45</v>
       </c>
       <c r="M33" s="111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N33" s="111" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O33" s="111" t="s">
         <v>29</v>
       </c>
       <c r="P33" s="111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q33" s="111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="R33" s="111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S33" s="111" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T33" s="115" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U33" s="112"/>
     </row>
     <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="113" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B34" s="191" t="s">
         <v>36</v>
@@ -8108,10 +8383,10 @@
         <v>27</v>
       </c>
       <c r="G41" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H41" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -8142,7 +8417,7 @@
     </row>
     <row r="43" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>30</v>
@@ -8151,10 +8426,10 @@
         <v>31</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E43" s="121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>32</v>
@@ -8169,18 +8444,18 @@
         <v>35</v>
       </c>
       <c r="J43" s="107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K43" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L43" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>52</v>
@@ -8204,7 +8479,7 @@
         <v>53</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J44" s="108" t="s">
         <v>36</v>
@@ -8218,7 +8493,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" s="64" t="s">
         <v>30</v>
@@ -8230,16 +8505,16 @@
         <v>32</v>
       </c>
       <c r="E45" s="190" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F45" s="190" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G45" s="42"/>
     </row>
     <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46" s="105" t="s">
         <v>36</v>
@@ -8278,7 +8553,7 @@
         <v>40</v>
       </c>
       <c r="G47" s="133" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -8289,7 +8564,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="135" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D48" s="131" t="s">
         <v>36</v>
@@ -8301,7 +8576,7 @@
         <v>0.5</v>
       </c>
       <c r="G48" s="135" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="20.399999999999999" x14ac:dyDescent="0.25">
@@ -8328,7 +8603,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D50" s="131" t="s">
         <v>36</v>
@@ -8343,7 +8618,7 @@
         <v>11</v>
       </c>
       <c r="C51" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D51" s="131" t="s">
         <v>36</v>
@@ -8355,19 +8630,19 @@
         <v>41</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C52" s="135" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D52" s="135" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="109" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B53" s="166" t="s">
         <v>2</v>
@@ -8391,7 +8666,7 @@
     </row>
     <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="170" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B54" s="171" t="s">
         <v>36</v>
@@ -8415,34 +8690,34 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="190" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="111" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B55" s="190" t="s">
-        <v>292</v>
-      </c>
-      <c r="C55" s="111" t="s">
+      <c r="F55" s="190" t="s">
+        <v>287</v>
+      </c>
+      <c r="G55" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="H55" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="111" t="s">
+      <c r="I55" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="E55" s="111" t="s">
+      <c r="J55" s="111" t="s">
         <v>203</v>
-      </c>
-      <c r="F55" s="190" t="s">
-        <v>290</v>
-      </c>
-      <c r="G55" s="190" t="s">
-        <v>291</v>
-      </c>
-      <c r="H55" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="I55" s="111" t="s">
-        <v>205</v>
-      </c>
-      <c r="J55" s="111" t="s">
-        <v>206</v>
       </c>
       <c r="K55" s="111" t="s">
         <v>44</v>
@@ -8451,34 +8726,34 @@
         <v>45</v>
       </c>
       <c r="M55" s="111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N55" s="111" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O55" s="111" t="s">
         <v>29</v>
       </c>
       <c r="P55" s="111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q55" s="111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="R55" s="111" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="S55" s="111" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T55" s="115" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U55" s="112"/>
     </row>
     <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="113" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B56" s="191" t="s">
         <v>36</v>
